--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_6/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.525</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.506</v>
+        <v>16.865</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-214.462</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>421.327</v>
+        <v>8.382999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.903</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.314</v>
+        <v>4.675</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>237.2037049780538</v>
+        <v>13.76229304014323</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>283.434655328747</v>
+        <v>17.43911916275633</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>316.1781282907476</v>
+        <v>19.49997981950931</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>344.9050904705111</v>
+        <v>-2.259957960004545</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>407.1407789635293</v>
+        <v>19.2004854734395</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>455.1000489467677</v>
+        <v>21.43778882979842</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>362.179181090238</v>
+        <v>1.52787717929024</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>431.480708518855</v>
+        <v>30.40266616728429</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>480.9104234884305</v>
+        <v>29.48628071944322</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>447.6146989353615</v>
+        <v>31.31218959176791</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>430.43826262368</v>
+        <v>36.65076268651581</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>479.5389890526757</v>
+        <v>40.14057328245148</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>313.4189086866307</v>
+        <v>11.40109228356824</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>390.4805244230201</v>
+        <v>26.47590341474332</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>456.1914001405733</v>
+        <v>28.6682976943998</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>250.2865410826729</v>
+        <v>18.11031677868815</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>293.3925110070621</v>
+        <v>37.42935479593726</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>343.5361807941786</v>
+        <v>47.08473995390784</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>330.2715795216517</v>
+        <v>5.544853871274416</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>381.3352411009474</v>
+        <v>32.14764324852068</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>449.8747509241788</v>
+        <v>46.05570289016208</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>352.9177964070501</v>
+        <v>6.918082150794707</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>421.4471896170434</v>
+        <v>55.66612960950777</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>512.8640165908296</v>
+        <v>72.98564570886064</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>382.7006891370008</v>
+        <v>54.75485283204407</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>365.0501939430164</v>
+        <v>67.50336461352491</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>442.9022549501823</v>
+        <v>78.24375389646639</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>303.255871155803</v>
+        <v>17.93820097587417</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>412.6945580817718</v>
+        <v>73.08671634965511</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>495.8611516263073</v>
+        <v>80.30924855641241</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>493.2177455238414</v>
+        <v>27.91710906611708</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>552.1787651353268</v>
+        <v>49.6859735080131</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>598.8168652051505</v>
+        <v>56.55901620338625</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>613.2220802692085</v>
+        <v>9.11781894611725</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>690.5681748230239</v>
+        <v>41.98485786583727</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>769.8691367580013</v>
+        <v>52.57165072835684</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>661.4504921820302</v>
+        <v>15.56248913964182</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>758.4787121588914</v>
+        <v>74.72343030086091</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>838.6617634656466</v>
+        <v>77.34429734497726</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>740.9976475995024</v>
+        <v>84.0473037767989</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>710.3514203723571</v>
+        <v>94.89326533066878</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>806.4391749408286</v>
+        <v>103.1851395660556</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>592.9283772805655</v>
+        <v>34.58975820450515</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>752.1726584054451</v>
+        <v>93.75940620305461</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>844.6586786571555</v>
+        <v>96.39708226087647</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>195.0952741905241</v>
+        <v>6.853847368876053</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>254.1171960025255</v>
+        <v>40.2597924337928</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>283.9839208464592</v>
+        <v>42.10854912490335</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>298.3399713538493</v>
+        <v>1.788791878361469</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>365.1853544295017</v>
+        <v>45.47272455539348</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>408.8156927210413</v>
+        <v>49.29549431699192</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>311.0396910541983</v>
+        <v>2.944441180547376</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>399.6185219993027</v>
+        <v>67.91158142416198</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>442.2714918367293</v>
+        <v>71.51100105898396</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>419.9744414820175</v>
+        <v>62.70598646476573</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>406.693313654199</v>
+        <v>70.51918929628049</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>445.7409145440845</v>
+        <v>72.70136877611762</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>261.547130700206</v>
+        <v>8.204823653082695</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>361.3418411775941</v>
+        <v>61.97801226904907</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>428.2463368455433</v>
+        <v>66.01091384536471</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>195.4236822796388</v>
+        <v>11.08205919271848</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>242.3887015871969</v>
+        <v>41.89910863486364</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>281.5389475502982</v>
+        <v>47.41303816065767</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>262.808152702754</v>
+        <v>3.814838013329975</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>319.5578624045299</v>
+        <v>37.05744121215953</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>368.6075232567373</v>
+        <v>49.4961364018488</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>280.6898876232146</v>
+        <v>5.935018434728146</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>356.8985155942351</v>
+        <v>60.79434588375644</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>429.3213955347984</v>
+        <v>77.72212522596496</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>325.1633191283174</v>
+        <v>58.55765450456676</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>308.9376656781441</v>
+        <v>71.54558208640343</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>367.7792698324433</v>
+        <v>76.72517269648945</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>233.8808729109869</v>
+        <v>7.703987051015371</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>349.8402265394932</v>
+        <v>72.23184205501281</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>418.5317934702595</v>
+        <v>78.52870331426384</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>404.4509163284764</v>
+        <v>10.1319556444352</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>471.9410229842219</v>
+        <v>46.10046436230128</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>507.5966584070331</v>
+        <v>52.82379901373898</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>514.0623522081128</v>
+        <v>0.8007265324784676</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>601.7595335463905</v>
+        <v>47.03591952852453</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>653.869264125284</v>
+        <v>56.91604738896146</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>548.3420636071213</v>
+        <v>4.379513583470491</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>661.3272932416619</v>
+        <v>77.65264935922698</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>722.0136564708208</v>
+        <v>90.11762029746751</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>648.5104448527018</v>
+        <v>84.17040596435825</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>628.2241228899669</v>
+        <v>98.17825707229106</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>698.0289450814047</v>
+        <v>100.5508554288312</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>484.3501678711665</v>
+        <v>9.129123455772046</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>666.6642242326158</v>
+        <v>89.43796644184486</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>740.8968685994215</v>
+        <v>92.73361322684774</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>219.1922750818242</v>
+        <v>30.38606374444546</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>271.5916854084762</v>
+        <v>44.91522926937744</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>297.9583796085076</v>
+        <v>46.35197988101541</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>312.6901115344301</v>
+        <v>7.028484676365398</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>381.6426406991047</v>
+        <v>46.11678448154871</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>424.1922638268661</v>
+        <v>48.41405977606353</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>327.1468621190775</v>
+        <v>8.55863497871416</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>418.3556132244058</v>
+        <v>70.694642572153</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>451.176652700017</v>
+        <v>67.43490109267023</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>436.9221850633401</v>
+        <v>61.15466854008626</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>432.8329764800753</v>
+        <v>73.73855867053727</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>469.3735126756395</v>
+        <v>72.03976153175381</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>281.3716474955769</v>
+        <v>25.59707238701153</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>378.0744572247634</v>
+        <v>60.92408052441354</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>436.0452734959022</v>
+        <v>63.07674206271764</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>213.9674163940725</v>
+        <v>25.69983932149827</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>257.68238953003</v>
+        <v>47.20249450817644</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>293.3056874216185</v>
+        <v>48.48071905117175</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>275.4354508314759</v>
+        <v>6.857149737517471</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>336.1657845521794</v>
+        <v>43.94015607781265</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>381.5637422624508</v>
+        <v>51.12549799799123</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>294.5679507642234</v>
+        <v>8.508968893321384</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>376.2694129424883</v>
+        <v>70.14850182226512</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>439.8169267669219</v>
+        <v>78.35925295033842</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>344.8531830596039</v>
+        <v>64.01883651572584</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>327.3694146387732</v>
+        <v>76.37476442452173</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>382.0597068455728</v>
+        <v>76.79470824971847</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>257.516082053132</v>
+        <v>27.38230231185875</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>363.4611159737024</v>
+        <v>74.99698803580277</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>424.275005103834</v>
+        <v>76.65863594755965</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>433.6024743457257</v>
+        <v>32.21109327201587</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>494.2436083355446</v>
+        <v>53.25090992684326</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>525.3750865196007</v>
+        <v>54.73574856223652</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>536.1585292726879</v>
+        <v>7.072245104315009</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>627.6472664173948</v>
+        <v>54.71832086540435</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>673.3803163419949</v>
+        <v>58.31638903825056</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>573.3760128874595</v>
+        <v>8.928522552615146</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>691.3807152104877</v>
+        <v>83.57922511356773</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>739.8004693497522</v>
+        <v>85.90918526329502</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>680.3679891475599</v>
+        <v>90.06860874637177</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>650.7346677092219</v>
+        <v>96.77307572681615</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>721.3223082020588</v>
+        <v>100.3475114019644</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>521.8025658231137</v>
+        <v>34.20941304856208</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>684.7637994178707</v>
+        <v>93.77947472114612</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>757.7659224165392</v>
+        <v>93.50449736915812</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>236.3995539309368</v>
+        <v>12.92428319362993</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>280.1968271107975</v>
+        <v>19.12511914590435</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>314.0290221353705</v>
+        <v>20.40088344182945</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>336.9633554447004</v>
+        <v>-2.653477128208142</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>400.9453810183448</v>
+        <v>21.61509360111666</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>448.2516180623429</v>
+        <v>22.58752254262379</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>356.8068447130365</v>
+        <v>3.843055637518322</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>424.0142721387763</v>
+        <v>30.68176975078194</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>470.7759060648551</v>
+        <v>31.34096536682549</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>439.8956531220598</v>
+        <v>34.65220167126191</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>420.1037531753067</v>
+        <v>37.42633704812884</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>471.4139041401288</v>
+        <v>43.24446663315126</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>350.7186970786084</v>
+        <v>59.89935299238802</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>422.8191259270642</v>
+        <v>75.07581622351465</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>482.5995694847168</v>
+        <v>68.55418846121033</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>241.2601220793725</v>
+        <v>14.02930852081614</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>283.1544567941576</v>
+        <v>37.44510292641379</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>336.2679321419005</v>
+        <v>47.20833449617931</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>316.8102868659427</v>
+        <v>4.48077974792346</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>370.5768067721519</v>
+        <v>37.72556124526852</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>441.1947998560302</v>
+        <v>51.3410165364879</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>346.8687879317592</v>
+        <v>13.169441781691</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>408.8376789784119</v>
+        <v>58.64159497057233</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>495.3108922054195</v>
+        <v>72.93871300489094</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>368.5362869798195</v>
+        <v>53.22960723289614</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>348.2957380824772</v>
+        <v>60.62915212831339</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>418.4584799013689</v>
+        <v>72.44085754082657</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>288.7470041775603</v>
+        <v>19.68390094785423</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>395.7176643028192</v>
+        <v>68.84986194840866</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>473.3964672027724</v>
+        <v>75.90059050028046</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>481.2351705539295</v>
+        <v>26.92369104550713</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>533.6411502705473</v>
+        <v>46.50381703609327</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>582.0025145927546</v>
+        <v>52.16676617815196</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>592.5021307113429</v>
+        <v>8.055427921356237</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>669.5053458463992</v>
+        <v>43.49208600842307</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>745.345699123753</v>
+        <v>53.55321287587366</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>641.3614202149369</v>
+        <v>17.28623506727068</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>732.8996139708723</v>
+        <v>70.56490634956113</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>815.7568653319158</v>
+        <v>77.64365062371442</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>709.1110019475163</v>
+        <v>76.68646455021748</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>676.9073768874952</v>
+        <v>80.40908150547828</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>767.8022401881129</v>
+        <v>93.29208661852063</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>580.2563780904148</v>
+        <v>38.47278548308212</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>725.7039802245632</v>
+        <v>90.62521743976443</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>820.0653919481416</v>
+        <v>94.89871444241028</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>270.560618051337</v>
+        <v>24.65796661442337</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>329.1792326876688</v>
+        <v>45.41655295617764</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>356.5756865823996</v>
+        <v>42.87345084795543</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>377.5176700357939</v>
+        <v>7.720401877141594</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>463.1157226862056</v>
+        <v>49.42618441816016</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>503.5551860116421</v>
+        <v>49.54311203966681</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>399.6465720294501</v>
+        <v>10.6572995641081</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>503.0348809349825</v>
+        <v>79.76650906468802</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>541.8407895536791</v>
+        <v>69.50459951440014</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>497.5301923051488</v>
+        <v>60.65033049776487</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>480.6690186050525</v>
+        <v>71.63851493258153</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>525.1742616127927</v>
+        <v>72.80272970907224</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>341.2371496535625</v>
+        <v>21.29832008849076</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>401.8201528122843</v>
+        <v>28.18639300059398</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>461.4389961360987</v>
+        <v>28.77977737231621</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>273.507459218894</v>
+        <v>31.55325755937788</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>322.50429618287</v>
+        <v>54.08747233067643</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>361.1433976392796</v>
+        <v>53.17434584145951</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>343.1985119530644</v>
+        <v>7.276370943501679</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>415.4458304474748</v>
+        <v>49.30837929174088</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>469.5357167388212</v>
+        <v>57.76068015797549</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>372.9059827929552</v>
+        <v>11.09545900296412</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>459.8982395410941</v>
+        <v>79.75918504439862</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>527.5789063493112</v>
+        <v>81.72042355743882</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>415.3232267313383</v>
+        <v>71.79825504961633</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>395.4430671664708</v>
+        <v>81.31670594978071</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>461.267618540366</v>
+        <v>85.50981619591016</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>332.3312974785011</v>
+        <v>42.36904602269209</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>446.2989190519371</v>
+        <v>84.89049514770925</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>507.0689650652513</v>
+        <v>36.07603247859647</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>571.5220342375615</v>
+        <v>57.58717915838839</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>606.3829423742114</v>
+        <v>57.31401275272111</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>621.7422469964102</v>
+        <v>7.802674636636805</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>719.2502572463092</v>
+        <v>51.56320748596021</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>776.1821269848562</v>
+        <v>55.51664525256288</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>665.1606671903204</v>
+        <v>11.04708653154008</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>787.3092695551405</v>
+        <v>84.42353052672809</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>847.890539281562</v>
+        <v>87.25784299578295</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>761.6041395021482</v>
+        <v>92.90041518637217</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>728.3899433073645</v>
+        <v>95.9056802765715</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>812.0492986970315</v>
+        <v>101.2644626661032</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>617.8873345197368</v>
+        <v>48.11722681012942</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>769.6866881819191</v>
+        <v>97.89242861259244</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>853.9621394572583</v>
+        <v>99.18740282674328</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>200.7476197646536</v>
+        <v>20.47390292503166</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>244.6372577769374</v>
+        <v>36.41422735118174</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>278.3145519647705</v>
+        <v>40.8416011552693</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>295.9231082908672</v>
+        <v>4.296868869873684</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>364.6262889077456</v>
+        <v>46.53671437769599</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>401.8059810474165</v>
+        <v>48.67478827672818</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>311.5075166683281</v>
+        <v>6.407237025862511</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>405.4389302027244</v>
+        <v>76.30512522652795</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>437.8036629772134</v>
+        <v>71.16416281810793</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>410.8367612268826</v>
+        <v>61.1765569148663</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>402.9254968589939</v>
+        <v>67.79339154235247</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>434.2567860665823</v>
+        <v>69.50715939659641</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>260.55452278313</v>
+        <v>13.5289674631014</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>316.5899635634879</v>
+        <v>9.837454835907248</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>364.1591963379832</v>
+        <v>8.421045878316935</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>200.1903791442163</v>
+        <v>25.54047975263757</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>248.6905908003718</v>
+        <v>52.83233144015911</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>281.4420850067135</v>
+        <v>55.08417610392237</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>257.7284816269326</v>
+        <v>5.715418749750551</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>322.3307331004128</v>
+        <v>47.42985158968483</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>363.6878195287071</v>
+        <v>55.7369207108711</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>275.9694983420649</v>
+        <v>7.656986827908561</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>362.8882298556306</v>
+        <v>76.85218656070992</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>417.8663900037436</v>
+        <v>81.52397746725717</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>322.5822027342991</v>
+        <v>64.48872262167724</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>319.2819989221477</v>
+        <v>78.51769234487837</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>367.6518652587882</v>
+        <v>82.97537680232269</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>248.0555578502582</v>
+        <v>27.52644971860391</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>359.5393858116618</v>
+        <v>83.70972309458973</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>416.7323269188829</v>
+        <v>85.26983513639163</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>397.0288389605561</v>
+        <v>29.6601848635114</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>458.593976517094</v>
+        <v>56.87561177227653</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>488.2993680539163</v>
+        <v>60.37440144209572</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>487.0825901243031</v>
+        <v>4.814755432841189</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>571.5559618891319</v>
+        <v>50.35015755874262</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>616.2303138925753</v>
+        <v>56.721002373875</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>521.977783175832</v>
+        <v>7.761339958205848</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>634.9570256684143</v>
+        <v>83.38488551001134</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>681.3832232475318</v>
+        <v>86.30939431050039</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>621.9413461603036</v>
+        <v>86.60566461638865</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>602.9686009027133</v>
+        <v>97.72288029429113</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>662.6784522785063</v>
+        <v>99.53384654185875</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>479.3570522348967</v>
+        <v>28.85977260054968</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>636.6566006861439</v>
+        <v>89.34325433745273</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>700.8366798140752</v>
+        <v>90.15865993346701</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>176.1603707023507</v>
+        <v>8.782443992929327</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>213.8640576536519</v>
+        <v>9.046880827795203</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>239.6102589623538</v>
+        <v>12.7521105424577</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>264.4117457697707</v>
+        <v>-2.795229649641424</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>314.2093840689237</v>
+        <v>14.96131095858938</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>354.0920550244896</v>
+        <v>16.9876182706605</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>279.9490082280233</v>
+        <v>-0.8828963492132011</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>336.3776052861131</v>
+        <v>22.58070972863605</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>375.3261599823924</v>
+        <v>23.15933053642887</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>355.440018367895</v>
+        <v>28.96854153920831</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>346.5088587005201</v>
+        <v>36.05309499196503</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>382.8620088656724</v>
+        <v>36.68893493237229</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>236.5686370581106</v>
+        <v>10.29746572358518</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>301.2939249745501</v>
+        <v>22.07975927508655</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>355.8448065676504</v>
+        <v>19.16099056463981</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>187.7494474037426</v>
+        <v>12.82691558364312</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>223.9857500201503</v>
+        <v>29.70266336939896</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>260.4398407475799</v>
+        <v>36.32255239182164</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>249.3355906146666</v>
+        <v>4.105030329422515</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>295.1094415000308</v>
+        <v>28.58951932640287</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>346.4069691160328</v>
+        <v>39.28695948130346</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>269.5023589883342</v>
+        <v>6.144460328722353</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>329.8189942976146</v>
+        <v>47.3803477264405</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>395.7009440519273</v>
+        <v>57.59081214146669</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>297.6968965768685</v>
+        <v>45.28483936931589</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>283.925798886555</v>
+        <v>55.40018034744001</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>338.4316164513212</v>
+        <v>60.92772778638599</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>229.9601536146033</v>
+        <v>14.40569368749395</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>317.6716482029582</v>
+        <v>57.45584328616597</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>379.3436948448606</v>
+        <v>60.64847804858776</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>394.8773050187098</v>
+        <v>18.88320397378944</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>449.870738055751</v>
+        <v>37.85086518173833</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>482.9240645203232</v>
+        <v>47.33671949564278</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>495.9736063624715</v>
+        <v>7.456579998090255</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>572.985652367336</v>
+        <v>42.46865752175658</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>629.761911234653</v>
+        <v>52.9219059796375</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>533.1481895159159</v>
+        <v>10.89891677989995</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>632.9845123290112</v>
+        <v>68.03981510168698</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>684.1409419933402</v>
+        <v>72.00308701428786</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>614.8913020082864</v>
+        <v>77.2023759430748</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>592.1279036884679</v>
+        <v>85.801196913122</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>662.7702379390948</v>
+        <v>89.7010542768832</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>484.6112329618428</v>
+        <v>30.86660983808886</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>625.7835821026168</v>
+        <v>82.61927758430978</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>699.1356268849082</v>
+        <v>87.87665664429836</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>222.2585273615397</v>
+        <v>6.238001903759976</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>261.7723053124884</v>
+        <v>10.05636315011417</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>294.3767484480359</v>
+        <v>9.87226690636005</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>326.0937798744898</v>
+        <v>-3.456464641815685</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>384.5311557272032</v>
+        <v>13.35951656884618</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>432.4685539698163</v>
+        <v>13.12405321704523</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>342.6923031256202</v>
+        <v>-1.669580152455985</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>400.4700727109321</v>
+        <v>17.80475546168569</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>446.0371717693057</v>
+        <v>14.98604186094653</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>414.6694375141036</v>
+        <v>15.65054142947672</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>396.8965482043313</v>
+        <v>22.39524144081836</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>441.6140330155913</v>
+        <v>21.79882777340591</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>290.9523672979632</v>
+        <v>3.445815711235181</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>353.0443360096964</v>
+        <v>14.25483436777174</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>416.7382684544904</v>
+        <v>7.372198818182021</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>216.5248736437476</v>
+        <v>-1.138147623467766</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>249.9427584005239</v>
+        <v>5.569792266308173</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>294.9638073650409</v>
+        <v>13.93430527992236</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>292.1400384027868</v>
+        <v>-5.13922023859347</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>338.3284813272415</v>
+        <v>5.276481225950459</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>401.2630721676504</v>
+        <v>13.90036576928092</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>311.7983562577657</v>
+        <v>-4.979858322295986</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>364.0578834384157</v>
+        <v>14.03389403889496</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>443.1939351065975</v>
+        <v>26.36011370541494</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>321.0737104391886</v>
+        <v>10.39138133040507</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>302.619966600678</v>
+        <v>27.71758845223219</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>379.3528283749332</v>
+        <v>39.63300611730894</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>256.3830430577372</v>
+        <v>-1.894356466158076</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>348.4888628809823</v>
+        <v>21.85860019455633</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>410.9985422988751</v>
+        <v>18.17528001504498</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>454.2905670820134</v>
+        <v>3.994638384389283</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>500.9109831706801</v>
+        <v>14.32850581915154</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>553.2248860119605</v>
+        <v>31.91424438790133</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>572.8700974535694</v>
+        <v>-4.069690064007141</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>643.1675754233598</v>
+        <v>15.93171576495536</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>722.5931521802653</v>
+        <v>33.63435994809198</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>611.5801140100205</v>
+        <v>-1.765909927680575</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>689.1668962425989</v>
+        <v>28.06726487169528</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>775.7932356926996</v>
+        <v>60.02702111371146</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>656.0507741681786</v>
+        <v>30.31458661289653</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>642.5851090152489</v>
+        <v>56.79480991131622</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>746.9142583579358</v>
+        <v>76.86165262922258</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>539.1696585202851</v>
+        <v>3.106113697338333</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>674.4153863048588</v>
+        <v>39.30148592047099</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>769.6557178331902</v>
+        <v>46.7979563882171</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>183.7881183770528</v>
+        <v>19.07254476097797</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>229.4190546780015</v>
+        <v>23.31244029101881</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>266.2943983963672</v>
+        <v>36.93601529769573</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>290.788359865252</v>
+        <v>6.70037916839982</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>361.9646305616137</v>
+        <v>49.32105068427072</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>400.8654801002098</v>
+        <v>50.77934149998585</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>303.6347301959283</v>
+        <v>10.61006336646603</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>394.8749677707782</v>
+        <v>70.6516627858374</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>431.828801515523</v>
+        <v>72.81533121319794</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>416.7820780708994</v>
+        <v>66.92853605697323</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>411.542166629847</v>
+        <v>75.09400108658838</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>442.2141335711385</v>
+        <v>73.2904501515458</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>280.3968932405079</v>
+        <v>42.19748676030257</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>351.1420180176497</v>
+        <v>60.97265959141795</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>430.8286621551772</v>
+        <v>78.80421789730052</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>192.5258389169742</v>
+        <v>17.1635876413994</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>230.8275125083189</v>
+        <v>36.82794436203391</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>265.7931814599508</v>
+        <v>38.44540421946279</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>254.2922212176659</v>
+        <v>0.9464430182896031</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>310.8372314221185</v>
+        <v>35.99584360676798</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>352.6947358899557</v>
+        <v>39.81522838953607</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>273.543259168001</v>
+        <v>5.327763041298677</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>347.3995316895332</v>
+        <v>59.6996250972779</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>406.2422284121465</v>
+        <v>65.52801886291873</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>319.395246864751</v>
+        <v>52.80990911023419</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>304.0564424658924</v>
+        <v>62.33896171918441</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>355.955706882654</v>
+        <v>63.54475156522973</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>243.7084785530816</v>
+        <v>26.22359534172712</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>338.0420110799606</v>
+        <v>68.02173051684163</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>398.3780770249396</v>
+        <v>67.47094001659656</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>391.4004188797327</v>
+        <v>20.53989016007453</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>449.0835912506363</v>
+        <v>39.45152378687024</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>481.3627460793981</v>
+        <v>46.48178043105442</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>496.6288693433356</v>
+        <v>3.929224976609607</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>581.9329508210332</v>
+        <v>47.30100525956179</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>627.3123085153902</v>
+        <v>51.11708601490982</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>530.9658911928956</v>
+        <v>8.501452728342656</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>639.9270591595607</v>
+        <v>76.30000224140909</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>688.1555325165522</v>
+        <v>80.84323616984044</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>629.9877749334509</v>
+        <v>80.06570198882297</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>606.0928189745389</v>
+        <v>86.33174959028017</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>669.3899733440948</v>
+        <v>87.93004204896135</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>482.7935028054022</v>
+        <v>33.66433121291203</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>634.7563047445698</v>
+        <v>85.55723362099096</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>709.3058181249174</v>
+        <v>89.13066860849089</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>155.7660784821896</v>
+        <v>5.399520135631565</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>190.792390270972</v>
+        <v>10.65583789497531</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>218.5889523252128</v>
+        <v>12.87558518860307</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>239.3906956741805</v>
+        <v>-3.393123253537009</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>277.9230416907092</v>
+        <v>8.14255725631585</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>320.8856634538519</v>
+        <v>12.37394919487233</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>254.4074035471238</v>
+        <v>-1.711370909745526</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>301.0724951610998</v>
+        <v>17.88470549594403</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>341.1212299895129</v>
+        <v>19.74292003652214</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>319.281236869578</v>
+        <v>21.8901892280067</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>302.5502077938025</v>
+        <v>25.61316915200096</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>345.7510400764963</v>
+        <v>28.73365587188884</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>206.9287288397236</v>
+        <v>2.449890971724415</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>274.3734700130387</v>
+        <v>16.44685553344851</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>329.1967870310651</v>
+        <v>20.22923340878924</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>143.1113217996385</v>
+        <v>5.979780077221637</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>171.052133379775</v>
+        <v>21.75209879751534</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>211.8343423639688</v>
+        <v>28.60118610553535</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>200.2920389516483</v>
+        <v>1.77730730574201</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>234.2929674403968</v>
+        <v>18.45912189332634</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>286.2254151642547</v>
+        <v>29.64881292693013</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>218.3968525870159</v>
+        <v>3.039743664700246</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>261.7809915738194</v>
+        <v>34.46890948920905</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>330.6178633885522</v>
+        <v>47.71364897947376</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>227.6165343979904</v>
+        <v>30.53922208436605</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>214.0427774244182</v>
+        <v>37.60666220267302</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>271.4359182820984</v>
+        <v>44.22922573719719</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>176.3595479369041</v>
+        <v>5.185716233647785</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>251.3554958048565</v>
+        <v>39.01074586862764</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>318.7716247831941</v>
+        <v>48.24178593951886</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>358.170316248597</v>
+        <v>16.13630574693693</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>400.8155027104121</v>
+        <v>32.93468993922221</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>439.1279723775359</v>
+        <v>42.8198582048488</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>451.034002800124</v>
+        <v>8.535451758690023</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>508.3835168229218</v>
+        <v>34.04545696158215</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>566.9666490408595</v>
+        <v>45.11965859700813</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>490.3239754792999</v>
+        <v>16.14234356062146</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>561.5781660518678</v>
+        <v>55.3041497418339</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>622.1612305569838</v>
+        <v>66.21961840288668</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>543.1286100889553</v>
+        <v>61.01680498330445</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>513.4671452134891</v>
+        <v>68.14219040370136</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>602.0555131438192</v>
+        <v>82.13812275413794</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>434.1132988138129</v>
+        <v>24.16483886865307</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>554.26020565699</v>
+        <v>64.34312849432148</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>631.6254585273964</v>
+        <v>75.13347237081128</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>191.9040925356262</v>
+        <v>2.298046926619296</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>228.0674707361509</v>
+        <v>2.890052446361825</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>253.1224157191456</v>
+        <v>6.434614245789927</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>286.7657140573612</v>
+        <v>-4.430941140636808</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>332.533258718005</v>
+        <v>7.039397043956495</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>371.7223289880901</v>
+        <v>10.98504978260968</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>297.8806997289907</v>
+        <v>-4.682392369767872</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>349.369073316599</v>
+        <v>7.63165348192172</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>385.1065399231768</v>
+        <v>11.02988431664047</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>372.1734634087887</v>
+        <v>12.43687881436021</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>355.8683220674601</v>
+        <v>15.60372140086491</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>395.0639699488213</v>
+        <v>19.41459456685039</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>247.9564552745808</v>
+        <v>-1.949070619028106</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>317.3472298659201</v>
+        <v>6.481535218982035</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>373.5523614148174</v>
+        <v>9.305910380927312</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>201.8084207857355</v>
+        <v>17.45864580024998</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>240.4273957624909</v>
+        <v>35.0121035975051</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>273.9625873352423</v>
+        <v>40.48764156653443</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>265.089941494801</v>
+        <v>6.206770346872855</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>318.7359037182316</v>
+        <v>34.35003858851009</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>359.4518604951199</v>
+        <v>44.07804923511179</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>284.0835126338703</v>
+        <v>7.794912197054234</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>351.6293725428678</v>
+        <v>53.75351631730746</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>408.0839680210512</v>
+        <v>65.47027404625493</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>321.185933644311</v>
+        <v>51.15891152460836</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>304.4722440440984</v>
+        <v>59.43032471051484</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>355.6962597164253</v>
+        <v>60.9252384779797</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>246.3536866618819</v>
+        <v>19.81383537689159</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>344.0761004992588</v>
+        <v>61.68619019141607</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>401.2949980093931</v>
+        <v>62.67951286008878</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>419.4646640306977</v>
+        <v>25.49700371119903</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>475.1835797764081</v>
+        <v>45.62324774270807</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>509.7776698602273</v>
+        <v>53.7496716408267</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>519.9615089451107</v>
+        <v>7.500170738003998</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>606.1025410705664</v>
+        <v>49.54942603144974</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>648.9592366946226</v>
+        <v>55.82911449035802</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>555.9840966917455</v>
+        <v>8.933236143166095</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>664.4055025877668</v>
+        <v>71.09800580177122</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>713.6855768408082</v>
+        <v>77.17041878793107</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>657.8631005634643</v>
+        <v>82.57168169094005</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>630.3504361397237</v>
+        <v>91.89004767299109</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>697.1874377286695</v>
+        <v>92.60472754686613</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>511.1378185767654</v>
+        <v>25.68254103588871</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>663.6248182079689</v>
+        <v>86.50135341817195</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>728.2731066966468</v>
+        <v>85.22560835034008</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>174.4229009727817</v>
+        <v>10.43979073721297</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>211.2101972383305</v>
+        <v>13.19676472313044</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>237.723213255318</v>
+        <v>14.51683474198949</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>262.1678618953466</v>
+        <v>-2.923961578022343</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>306.952525737209</v>
+        <v>11.89847823433628</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>348.1748795430193</v>
+        <v>15.54377651072439</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>278.7302051375276</v>
+        <v>0.3757086942168222</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>329.0921447051198</v>
+        <v>19.61403497666891</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>367.7642505172864</v>
+        <v>21.52024059983959</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>353.0188933047993</v>
+        <v>22.26261972596645</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>335.6270125346298</v>
+        <v>29.68739016969649</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>376.4170826813696</v>
+        <v>32.98293531176907</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>236.1092412146623</v>
+        <v>11.43084564319118</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>304.1594894633453</v>
+        <v>22.67244064939986</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>358.4964498558139</v>
+        <v>25.2958423771861</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>161.6630378140905</v>
+        <v>3.957528888842592</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>191.2136219765748</v>
+        <v>11.28959108636066</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>227.2455520493297</v>
+        <v>19.50246840333683</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>219.2457090662474</v>
+        <v>-3.771912395401348</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>256.6640843024065</v>
+        <v>7.731480891790646</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>304.5081139624</v>
+        <v>21.45742155275414</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>237.7121001564936</v>
+        <v>-2.643682402854889</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>282.9236783557554</v>
+        <v>16.78096905930066</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>347.0787615161055</v>
+        <v>37.48312897763778</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>256.8020848832182</v>
+        <v>13.73389289570386</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>226.3359025842715</v>
+        <v>27.04116164289671</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>286.8660948268796</v>
+        <v>33.82177231493536</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>195.4605324163848</v>
+        <v>2.641928708266196</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>272.7347288581107</v>
+        <v>24.00818916928215</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>333.9785094896425</v>
+        <v>32.66694070462443</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>375.5087772355772</v>
+        <v>19.33615531265518</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>423.1792839048983</v>
+        <v>30.9892969145139</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>456.120674913872</v>
+        <v>37.20469580490749</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>468.0966903423392</v>
+        <v>1.57705625639429</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>533.9728190691568</v>
+        <v>26.87872780109179</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>585.4564027552151</v>
+        <v>34.89468089100723</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>504.5706050699208</v>
+        <v>8.332733387375765</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>586.2220330670946</v>
+        <v>48.17696162861864</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>641.7285491829042</v>
+        <v>57.95980478450187</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>573.7002009067661</v>
+        <v>53.0252224643567</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>543.2438001307947</v>
+        <v>62.84017432110191</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>615.8585391213013</v>
+        <v>67.08249021164254</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>453.0659358702833</v>
+        <v>27.55528883823486</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>579.8305263615435</v>
+        <v>58.73390464727359</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>652.5532792257735</v>
+        <v>61.55580932753848</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>160.8597316925295</v>
+        <v>1.065772647750762</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>193.1764059874049</v>
+        <v>3.643144296144893</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>215.5130882824069</v>
+        <v>1.322553140919243</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>245.3886575578907</v>
+        <v>-4.620047808378029</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>283.0797504140223</v>
+        <v>2.110012850430042</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>320.5232741246548</v>
+        <v>4.425755064240253</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>258.0315117940743</v>
+        <v>-4.405018859979545</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>300.3787232228774</v>
+        <v>3.653830888334593</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>331.7502140345084</v>
+        <v>4.71092581133043</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>322.9508757952858</v>
+        <v>6.248731843355525</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>303.5247159911797</v>
+        <v>7.969905004705961</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>340.8743645980031</v>
+        <v>11.16058688479603</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>221.1314809220238</v>
+        <v>1.327045402143234</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>276.5384554093948</v>
+        <v>7.413394601933476</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>323.7315836500716</v>
+        <v>6.233555795671922</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>151.5453950701163</v>
+        <v>-3.417231001337306</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>176.9978729163094</v>
+        <v>0.1141110664909668</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>207.6832342143011</v>
+        <v>1.431378646664808</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>209.4234748627023</v>
+        <v>-4.754582650135315</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>241.9492997089355</v>
+        <v>0.2317142895091457</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>284.4347242031727</v>
+        <v>8.150622576903491</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>227.4258883994737</v>
+        <v>-4.58768186014046</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>263.3030168268357</v>
+        <v>5.05216304248825</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>314.6194324151727</v>
+        <v>12.17155093304184</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>238.0032760869385</v>
+        <v>3.949073017337493</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>213.6352290996846</v>
+        <v>6.518810914781593</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>263.9409988653965</v>
+        <v>8.835548502630058</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>184.3134970629105</v>
+        <v>-4.364509132699798</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>247.8717716114494</v>
+        <v>8.451925101717723</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>301.3344502268905</v>
+        <v>10.0892768078292</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>356.3977564007872</v>
+        <v>16.95564677110623</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>396.5685690822954</v>
+        <v>21.38013900642045</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>426.6729933955288</v>
+        <v>25.00206573735895</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>442.750848412911</v>
+        <v>1.488068284377874</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>501.1191543847822</v>
+        <v>18.02829838732874</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>548.5545178320652</v>
+        <v>25.24972259281031</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>479.6565568495474</v>
+        <v>7.981149178227088</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>548.6259083335484</v>
+        <v>33.04758191225875</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>597.5937212975903</v>
+        <v>38.16962787193525</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>536.5832425883452</v>
+        <v>40.83584334913714</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>506.759281742652</v>
+        <v>39.84310741787034</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>570.4706976031021</v>
+        <v>46.6280479943807</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>432.6697902710393</v>
+        <v>22.59626324406269</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>535.4695919304567</v>
+        <v>37.05609681098983</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>603.9002860115331</v>
+        <v>41.67111162494716</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>235.10211494823</v>
+        <v>18.0995530911807</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>279.9360617470721</v>
+        <v>31.07898685062279</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>315.2051442671431</v>
+        <v>34.20503716469106</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>336.7100710463815</v>
+        <v>2.830322769385802</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>399.8186902469995</v>
+        <v>28.73175324772726</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>448.8078972042839</v>
+        <v>32.38267441905487</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>355.3894493757509</v>
+        <v>6.982213610784171</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>424.1192596776935</v>
+        <v>42.9181764677289</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>474.6648726508112</v>
+        <v>47.68623702468824</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>443.3686024440334</v>
+        <v>44.46468866317906</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>424.6560397277075</v>
+        <v>54.74792140945782</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>477.2084922138969</v>
+        <v>58.39185025729397</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>314.6563833881379</v>
+        <v>30.11259159409337</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>397.6511593439768</v>
+        <v>54.97926488346328</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>476.0761894965268</v>
+        <v>58.48992189485958</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>235.3960203659839</v>
+        <v>11.70235609848512</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>269.8668655285361</v>
+        <v>24.18138464233129</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>314.7069586935967</v>
+        <v>29.8492640554364</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>308.5265123734996</v>
+        <v>-3.339435234204931</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>353.6677877148464</v>
+        <v>16.89742987601319</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>415.3308748078113</v>
+        <v>25.64833271755343</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>331.6076028841069</v>
+        <v>0.428045326635786</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>387.6533305033687</v>
+        <v>35.66433902061836</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>463.6688666530115</v>
+        <v>42.30338357129216</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>355.9667883343296</v>
+        <v>36.19903048676797</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>326.6217268226641</v>
+        <v>41.58688470429131</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>400.261609329816</v>
+        <v>44.37495584955778</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>287.7566037299787</v>
+        <v>18.39085419187963</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>382.4063676773756</v>
+        <v>50.53303683017947</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>459.4173641696271</v>
+        <v>54.58493752923705</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>475.2078699283717</v>
+        <v>25.80145939414672</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>527.7677589820619</v>
+        <v>40.97922566241899</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>571.6245921887066</v>
+        <v>50.86615747200889</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>590.2385408878321</v>
+        <v>6.801772752524194</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>663.1014876904266</v>
+        <v>35.46106055806973</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>732.3107291550756</v>
+        <v>43.62091099049219</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>634.2444743696185</v>
+        <v>13.5275684322798</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>725.7592901401575</v>
+        <v>63.6072492263021</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>799.2919513499995</v>
+        <v>69.65519714254793</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>709.5832773985851</v>
+        <v>77.7090796532942</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>671.2350095273127</v>
+        <v>80.7947791856068</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>769.480475458213</v>
+        <v>83.00254955086301</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>567.9144707321611</v>
+        <v>36.21525331296021</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>714.9216082636163</v>
+        <v>73.75561437332681</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>807.3372050423172</v>
+        <v>83.16448535391361</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>186.7117556748568</v>
+        <v>18.17993079571366</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>238.009856902751</v>
+        <v>37.32559092256039</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>265.2166052011549</v>
+        <v>42.5749875543213</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>281.7825307114304</v>
+        <v>7.760588452983828</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>339.5488901174368</v>
+        <v>43.63357749710967</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>382.3756083240429</v>
+        <v>47.27520202280566</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>293.5711095602671</v>
+        <v>10.22094492431805</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>370.961788226537</v>
+        <v>63.75228843226274</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>408.8482046838191</v>
+        <v>67.10456596733465</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>408.3060502720884</v>
+        <v>71.36401925562673</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>387.5036371918687</v>
+        <v>75.95245162576377</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>429.1751388168055</v>
+        <v>77.39967329326527</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>251.6810570295748</v>
+        <v>20.84305778908531</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>344.3742296378146</v>
+        <v>64.37838221029669</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>402.6467389719022</v>
+        <v>68.36723835716884</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>173.9603271996596</v>
+        <v>14.60164675954491</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>212.6802037688697</v>
+        <v>33.85074214610835</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>249.6805233874724</v>
+        <v>39.75960174821727</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>235.9125582299064</v>
+        <v>4.115117818953227</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>283.3938508435148</v>
+        <v>31.95037645588299</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>331.4026371833128</v>
+        <v>40.86971145716542</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>252.987531316839</v>
+        <v>5.155902342916146</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>317.6666014012525</v>
+        <v>51.1731790932983</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>381.6464176296563</v>
+        <v>63.59618867758442</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>291.1594505440261</v>
+        <v>49.96781028827984</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>268.1335744978663</v>
+        <v>58.51410477443443</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>326.902503116831</v>
+        <v>58.94737781803116</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>211.6617346386404</v>
+        <v>14.56978488031367</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>306.9701031181953</v>
+        <v>61.29968954887595</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>372.8598048203844</v>
+        <v>66.62725773720553</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>378.4706289351085</v>
+        <v>16.28665770682945</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>433.7351437304826</v>
+        <v>38.1005795519028</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>469.8293977275748</v>
+        <v>47.59422447024997</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>478.0940977079892</v>
+        <v>1.98132555542206</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>552.5003021395327</v>
+        <v>41.40675810340215</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>606.0533214295757</v>
+        <v>49.47948804425492</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>511.7561185438182</v>
+        <v>4.453377212602007</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>607.7475367691524</v>
+        <v>61.97861424717199</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>665.9806062887222</v>
+        <v>74.97311966698699</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>600.2553453176696</v>
+        <v>74.58602304283255</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>573.7591272964021</v>
+        <v>83.21089203114289</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>649.6056965909366</v>
+        <v>91.03881903737371</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>458.0797168114799</v>
+        <v>19.18874106614743</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>606.6660960147832</v>
+        <v>78.56210188735842</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>685.1339962635493</v>
+        <v>85.39611451645543</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>246.462199024791</v>
+        <v>20.14057249252421</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>297.5545962886639</v>
+        <v>31.91982621990666</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>337.2365954668819</v>
+        <v>38.3556779699392</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>363.3168984993322</v>
+        <v>4.015039541183981</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>438.1744708092876</v>
+        <v>47.66531656420236</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>486.8830828884508</v>
+        <v>50.85762225098885</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>377.080866363078</v>
+        <v>6.447698434988343</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>472.8695389897742</v>
+        <v>67.93379324559801</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>518.5729616913212</v>
+        <v>68.47829549850317</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>486.0063218390451</v>
+        <v>62.39578655345029</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>465.6540853735019</v>
+        <v>63.49726669652794</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>512.5790332718518</v>
+        <v>65.83420374489233</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>338.4732176619519</v>
+        <v>27.75542472138165</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>419.9536599790373</v>
+        <v>53.17139074610055</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>506.3563986483953</v>
+        <v>70.89932255615423</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>255.3208476331521</v>
+        <v>22.28125699519883</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>295.6333415431773</v>
+        <v>36.88239704131838</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>341.4024272201567</v>
+        <v>41.34001810435555</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>330.7409726741641</v>
+        <v>2.217097939958581</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>386.7786133580495</v>
+        <v>34.39710957870898</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>446.9383365862184</v>
+        <v>42.83275949948076</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>352.5537490039236</v>
+        <v>3.411554073908807</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>428.6083657462526</v>
+        <v>57.12066774017352</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>507.7221923741191</v>
+        <v>69.44226337588245</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>391.3536558775238</v>
+        <v>55.6672791900734</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>366.4425806732346</v>
+        <v>63.23370309301443</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>437.513860778205</v>
+        <v>65.64406768166251</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>306.3613814543108</v>
+        <v>23.91910089065442</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>416.5180356062635</v>
+        <v>68.69999038349277</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>492.8101989851091</v>
+        <v>73.22208374068225</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>490.8893626027576</v>
+        <v>23.95130434051047</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>551.6807597523926</v>
+        <v>42.968317901654</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>595.7759432471295</v>
+        <v>48.34233435062071</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>615.4116807740983</v>
+        <v>2.166646324910634</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>700.4577160472993</v>
+        <v>43.01816163191249</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>770.4754086902125</v>
+        <v>49.57075599838804</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>656.5366633349566</v>
+        <v>3.715305272684162</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>766.5893422668186</v>
+        <v>70.32415458924703</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>838.0464208665222</v>
+        <v>76.66896951038648</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>754.1099280378937</v>
+        <v>81.64303778374904</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>716.1469493821421</v>
+        <v>86.76497549346752</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>806.4779340568808</v>
+        <v>92.80508733861483</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>590.107931132851</v>
+        <v>24.82405911735259</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>757.5154022223911</v>
+        <v>81.96304181345909</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>848.5663780745114</v>
+        <v>86.96313951702557</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>268.7598227177233</v>
+        <v>24.78258902180329</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>316.9465805377798</v>
+        <v>31.2091812689609</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>356.0082870873094</v>
+        <v>39.69888816408075</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>393.0500202883387</v>
+        <v>15.31579865033726</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>475.0096680058045</v>
+        <v>61.65403446315244</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>521.6664555365501</v>
+        <v>60.23813674672613</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>402.354834874714</v>
+        <v>12.65531542929617</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>495.019443700565</v>
+        <v>69.96122661365298</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>545.1008293981268</v>
+        <v>69.43632268876112</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>510.3280182114571</v>
+        <v>63.30713082267692</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>489.3061991928643</v>
+        <v>69.92497243820938</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>536.6319077628217</v>
+        <v>69.8097354332379</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>365.3315160556263</v>
+        <v>43.40378586811582</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>432.6316479322296</v>
+        <v>47.24377209358224</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>521.807369968804</v>
+        <v>69.12193577418427</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>275.7933148178051</v>
+        <v>25.12820521502588</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>314.4203919238103</v>
+        <v>34.62643079884796</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>359.8376512766419</v>
+        <v>42.49456311497757</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>376.4122228904075</v>
+        <v>35.76731232939329</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>430.3124018509664</v>
+        <v>56.24437445409555</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>488.9260148220734</v>
+        <v>60.89562768007023</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>379.3548902933554</v>
+        <v>8.521526134339258</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>454.5818139417659</v>
+        <v>59.17907180581468</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>528.5436905429727</v>
+        <v>68.09196531493204</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>413.0854330528692</v>
+        <v>53.34106350594304</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>383.87957402297</v>
+        <v>63.76064983207885</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>456.444498443278</v>
+        <v>63.61876842714427</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>329.8169458672364</v>
+        <v>30.29809518140564</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>434.886472580182</v>
+        <v>66.18879840293705</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>512.2241592759608</v>
+        <v>72.94176119393998</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>517.5813731479157</v>
+        <v>28.35325112229102</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>573.9519929638947</v>
+        <v>42.57521155918266</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>616.104737609964</v>
+        <v>47.52720776248789</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>667.2981099329514</v>
+        <v>37.78867746775765</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>746.7133410785445</v>
+        <v>64.66141067671445</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>812.8426580815027</v>
+        <v>67.11972974444575</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>684.8575326187533</v>
+        <v>10.44113847968498</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>795.1857491005751</v>
+        <v>73.18855849208643</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>862.866101183375</v>
+        <v>77.21691648235651</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>777.7402904061281</v>
+        <v>85.95420747274555</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>736.9331865563962</v>
+        <v>88.26078831249635</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>832.0424625611321</v>
+        <v>95.7186793165443</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>623.9120680760882</v>
+        <v>37.35805367565497</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>774.5630538214087</v>
+        <v>85.07476134520553</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>874.3683071358956</v>
+        <v>91.31114966162507</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>204.6875844740032</v>
+        <v>16.74666065218108</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>255.1140089602871</v>
+        <v>35.58614389117568</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>293.0880055245209</v>
+        <v>42.4182734871064</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>301.81180468405</v>
+        <v>3.717581837881998</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>354.7305232423522</v>
+        <v>32.83113507938566</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>413.8393158552287</v>
+        <v>43.03411746445968</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>319.2291344378208</v>
+        <v>4.368737258242323</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>396.3230097096005</v>
+        <v>56.70187436434219</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>443.0551940427612</v>
+        <v>62.62100383069283</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>424.6047907256871</v>
+        <v>64.0580440321188</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>409.980456974862</v>
+        <v>71.70140543696932</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>460.7798505285533</v>
+        <v>75.48036524995304</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>268.6398569851577</v>
+        <v>9.532701185602338</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>368.4695402652723</v>
+        <v>61.24536544140842</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>434.6917624281324</v>
+        <v>66.62578501319386</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>198.4708407213212</v>
+        <v>11.52503212208094</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>235.7351381652052</v>
+        <v>34.12331855200917</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>280.3199490080368</v>
+        <v>36.8315048576365</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>263.5035142455836</v>
+        <v>0.597545647761617</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>309.5071496409945</v>
+        <v>30.93538266316774</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>368.0044283241829</v>
+        <v>37.94507014959429</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>284.4647467345604</v>
+        <v>0.3712005077007063</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>347.1466551507989</v>
+        <v>51.22540314583308</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>420.0739739050852</v>
+        <v>60.2661000293627</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>319.4751760141976</v>
+        <v>48.18807112738544</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>296.7725049440189</v>
+        <v>55.75897594756755</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>363.3388028190444</v>
+        <v>58.23533669824185</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>235.0001587469796</v>
+        <v>5.112464595895865</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>326.353074743933</v>
+        <v>51.75217391169929</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>409.0931835118737</v>
+        <v>63.75921973496408</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>420.6650856376974</v>
+        <v>13.42771254301895</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>476.9349776019509</v>
+        <v>37.85537596448766</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>520.3714716333318</v>
+        <v>45.51698729521523</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>527.5350710234978</v>
+        <v>-0.1264956415196785</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>602.4981868351621</v>
+        <v>40.17353311073842</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>668.8611625564237</v>
+        <v>47.30326917566192</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>565.7385562487755</v>
+        <v>1.9193640924661</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>663.7443655202278</v>
+        <v>61.4897341643015</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>730.796179838164</v>
+        <v>72.38792265694063</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>652.5278009205459</v>
+        <v>73.7958426053471</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>623.3528284832234</v>
+        <v>82.03085609274964</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>710.7462443020555</v>
+        <v>90.13986937543632</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>496.755618111967</v>
+        <v>7.053044078398838</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>655.5845862756649</v>
+        <v>75.75969653999934</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>748.4461887270311</v>
+        <v>85.85988964438477</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>204.523597354173</v>
+        <v>12.92401823920166</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>243.7636614096995</v>
+        <v>16.10500952036383</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>274.9376353220333</v>
+        <v>17.3251470852274</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>295.7943269836735</v>
+        <v>-2.256964241881057</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>348.316184389812</v>
+        <v>18.67400535858811</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>393.982566927716</v>
+        <v>19.92899003246364</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>312.5635666736591</v>
+        <v>1.748446221883615</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>373.6092476630201</v>
+        <v>28.57092524505997</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>419.9608060596396</v>
+        <v>30.02736038718511</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>386.9675489737111</v>
+        <v>31.19771539246148</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>371.5625142029804</v>
+        <v>35.7602953538676</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>419.4163951397339</v>
+        <v>38.85433812710825</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>263.8990446321274</v>
+        <v>16.25963196296914</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>331.1823937657084</v>
+        <v>24.20913091807923</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>399.2130393837436</v>
+        <v>28.38936486232469</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>214.2488877721723</v>
+        <v>12.28820943771441</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>248.7101145933873</v>
+        <v>28.27672209044425</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>294.2851544435611</v>
+        <v>35.19233795657121</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>282.9844317326521</v>
+        <v>3.976694014901785</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>325.5456584558352</v>
+        <v>28.05471891463908</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>389.1140398097937</v>
+        <v>38.87935090522183</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>304.1052183871511</v>
+        <v>6.351998192652236</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>360.5799030617663</v>
+        <v>46.42098587794042</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>442.1163822144796</v>
+        <v>58.84257457146127</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>325.1913520838114</v>
+        <v>43.59293945971774</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>305.1516390677996</v>
+        <v>48.83532805618013</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>374.1353804296972</v>
+        <v>60.97064330347438</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>251.4502561150225</v>
+        <v>11.23172978655811</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>340.3247621374396</v>
+        <v>51.17412598151459</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>418.5389659735116</v>
+        <v>60.69669198336348</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>424.9054678828728</v>
+        <v>18.70115582446966</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>474.1183155799804</v>
+        <v>37.59711716740976</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>519.3270666378583</v>
+        <v>46.39654734137263</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>530.0056635130793</v>
+        <v>6.744140076391485</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>596.4640560910515</v>
+        <v>38.53436893282436</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>671.4261101488277</v>
+        <v>49.71145787219625</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>571.1820640811288</v>
+        <v>13.1840357972625</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>655.1203155136303</v>
+        <v>61.69370575803556</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>732.0581068081561</v>
+        <v>73.00983521097663</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>628.8886095334809</v>
+        <v>65.88016861592307</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>601.7882575053601</v>
+        <v>69.25208502502687</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>696.6142736539588</v>
+        <v>85.36035554071299</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>496.2553351529186</v>
+        <v>25.89985001169458</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>629.8639932295523</v>
+        <v>66.8659807165477</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>730.6008366406007</v>
+        <v>83.21858807339753</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>263.1588188155685</v>
+        <v>14.20309211131979</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>308.7012330902287</v>
+        <v>17.4361446463188</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>341.7973260253044</v>
+        <v>19.48275424917145</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>372.3571519660931</v>
+        <v>-0.2810182007928255</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>439.6213463323103</v>
+        <v>20.6792620888213</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>489.7711018783277</v>
+        <v>22.86202367471012</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>391.9905024219539</v>
+        <v>4.143143209838819</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>461.3851467128944</v>
+        <v>32.76670366712851</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>512.8752632956389</v>
+        <v>33.80316911333357</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>484.0303102953254</v>
+        <v>40.33020816207159</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>464.6055779867942</v>
+        <v>49.26525760875081</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>517.5074424436907</v>
+        <v>51.85680505506352</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>345.5672337979419</v>
+        <v>16.91256066159345</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>418.5785355273862</v>
+        <v>25.21842420483248</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>491.6696404398726</v>
+        <v>36.65119967595594</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>268.7326902791127</v>
+        <v>7.728157335288312</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>302.2401880356061</v>
+        <v>16.32632758675559</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>357.9090873533954</v>
+        <v>34.150160342302</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>358.7068730376034</v>
+        <v>2.361255165583032</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>396.4984392834215</v>
+        <v>15.13280677653331</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>479.9785273549948</v>
+        <v>41.03273233950864</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>377.6838782582963</v>
+        <v>-0.001140126613492498</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>431.9683719338907</v>
+        <v>31.27970447736602</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>530.7153557433161</v>
+        <v>59.01357506881986</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>399.8645483291547</v>
+        <v>34.85241142995474</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>376.8763577931071</v>
+        <v>48.91654289744523</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>452.428368014774</v>
+        <v>60.37762257676806</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>318.6940755389979</v>
+        <v>8.432794927478731</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>422.8873650175949</v>
+        <v>47.99753432249149</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>506.3256574249074</v>
+        <v>59.84090372821936</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>508.4816509143635</v>
+        <v>17.1036194425319</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>557.7823529778582</v>
+        <v>27.87435609369639</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>607.4020673699154</v>
+        <v>39.75939603440939</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>640.896133724279</v>
+        <v>6.416779392139777</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>703.9604776227968</v>
+        <v>23.65206801463117</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>791.1062116497368</v>
+        <v>44.53570698843223</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>679.1180289320913</v>
+        <v>5.149483799012572</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>765.552210301538</v>
+        <v>46.6962612954411</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>851.1747672688749</v>
+        <v>64.45541024351937</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>752.8037531231004</v>
+        <v>64.32877782691014</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>712.5752663413464</v>
+        <v>68.86711698083022</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>816.2821620548885</v>
+        <v>82.22044759281215</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>603.4884518725851</v>
+        <v>14.77873073133474</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>750.2453676976608</v>
+        <v>55.45124993290355</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>855.0352065301754</v>
+        <v>72.52109603574537</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>201.2296845025451</v>
+        <v>22.059406240613</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>248.9202171893207</v>
+        <v>34.6096032254619</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>281.8217435057555</v>
+        <v>38.46730928848596</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>303.2485391095514</v>
+        <v>7.209001936463235</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>370.9550816503091</v>
+        <v>50.74862469860868</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>413.6935596795452</v>
+        <v>51.42220077875011</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>315.2474981591358</v>
+        <v>10.22975098697618</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>404.3106102402313</v>
+        <v>70.25976489506762</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>441.8692300968839</v>
+        <v>68.62634927284657</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>419.205326636785</v>
+        <v>64.20030367402242</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>406.3361678398969</v>
+        <v>70.78531430933477</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>447.6771913032624</v>
+        <v>72.56602000209487</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>283.4680155038185</v>
+        <v>36.54592584106865</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>353.8705438561732</v>
+        <v>54.61356085283716</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>441.0411759312768</v>
+        <v>78.10068930884792</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>212.0184843909049</v>
+        <v>25.90699106861454</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>247.6570198447844</v>
+        <v>40.56816945373956</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>284.9925261829632</v>
+        <v>42.81670907999988</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>275.7846669488599</v>
+        <v>6.775740239025815</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>326.2048718215624</v>
+        <v>38.19942664493166</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>375.1962430716188</v>
+        <v>43.4331852184359</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>292.7916490093977</v>
+        <v>7.987686341452214</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>362.6933370783204</v>
+        <v>59.91578667030103</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>424.6143999374925</v>
+        <v>66.14810725522877</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>335.0707504866524</v>
+        <v>57.09301526334722</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>310.4330015986532</v>
+        <v>61.62332653974437</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>368.469750394251</v>
+        <v>64.88106969307142</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>253.6424750251171</v>
+        <v>26.90202256889894</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>347.5367621362893</v>
+        <v>66.23886057262798</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>411.8584164463119</v>
+        <v>68.25819361115332</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>414.1223397437717</v>
+        <v>24.17402639282449</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>468.2686646405452</v>
+        <v>42.70353297692827</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>503.6712288270277</v>
+        <v>47.3961543512572</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>520.0342456184023</v>
+        <v>7.15343648754672</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>596.8426194889726</v>
+        <v>46.02903461282182</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>651.1630996330107</v>
+        <v>50.54762589034262</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>553.3268854507314</v>
+        <v>7.825751276913675</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>657.4992875943658</v>
+        <v>72.18204943352463</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>713.2535676718968</v>
+        <v>77.55238346231367</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>655.892116681664</v>
+        <v>83.08934495466784</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>614.7283264015833</v>
+        <v>86.45634966892169</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>689.3688507777425</v>
+        <v>88.2938093256854</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>499.2599717847789</v>
+        <v>32.53084517443598</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>640.2974584787705</v>
+        <v>79.33316505584048</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>720.8137090091772</v>
+        <v>85.02441403026708</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>210.8589317910653</v>
+        <v>15.81204183602121</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>260.3508281697207</v>
+        <v>34.34431687953365</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>295.2241082809895</v>
+        <v>39.26232919207124</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>311.2000905214952</v>
+        <v>5.747138901796532</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>371.004551742723</v>
+        <v>38.86006642572546</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>424.0775107960282</v>
+        <v>43.10597024093384</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>325.1976405546808</v>
+        <v>5.88462743696622</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>402.8523826957286</v>
+        <v>56.20292484100633</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>448.2283617751276</v>
+        <v>60.2363318907062</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>428.0247582470205</v>
+        <v>61.18534269863056</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>419.2703238980972</v>
+        <v>72.49322140033814</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>461.3454359981513</v>
+        <v>72.60234073976363</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>273.7029044289127</v>
+        <v>10.09982729943392</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>370.5367086044986</v>
+        <v>59.05195990313509</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>438.7761796062402</v>
+        <v>64.41578628922123</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>205.6097062036257</v>
+        <v>11.04440470774322</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>243.3776639118487</v>
+        <v>33.01505391737213</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>285.5024473149479</v>
+        <v>35.2553644942228</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>272.8871971153083</v>
+        <v>4.002425814359551</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>321.5984236198589</v>
+        <v>33.61033006922473</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>377.5542071553723</v>
+        <v>40.82059861715331</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>291.9201035399918</v>
+        <v>5.498318164745815</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>355.2559845529062</v>
+        <v>53.50213399722162</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>427.0482870281905</v>
+        <v>64.93525910118886</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>329.4849829488708</v>
+        <v>53.02665630332633</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>309.8475587635917</v>
+        <v>61.15845709598888</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>371.7236031029865</v>
+        <v>61.68362475416538</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>245.7588169275978</v>
+        <v>10.79691589462404</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>345.8211195729003</v>
+        <v>63.97434598745006</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>418.1161535565315</v>
+        <v>68.30703378192425</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>424.9441647224684</v>
+        <v>12.47304981914283</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>479.4819469571654</v>
+        <v>36.49258142372243</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>522.3660925989378</v>
+        <v>43.07118534902176</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>534.4762701727681</v>
+        <v>1.226094020180042</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>609.8359286035044</v>
+        <v>40.91295730336661</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>676.9350869578951</v>
+        <v>46.77352219825323</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>570.8807525526781</v>
+        <v>3.586872606175994</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>664.79471207462</v>
+        <v>58.96869681565806</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>734.7814462519495</v>
+        <v>69.20984760542058</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>652.059167252684</v>
+        <v>69.61364231676299</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>628.0295660127496</v>
+        <v>79.67468562099481</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>711.7161540585939</v>
+        <v>86.87541646053764</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>505.4942082657542</v>
+        <v>8.413400223621299</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>660.5141149733687</v>
+        <v>69.94203681856438</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>748.6481371370699</v>
+        <v>80.94606291862711</v>
       </c>
     </row>
   </sheetData>
